--- a/biology/Botanique/Pakaraimaea_dipterocarpacea/Pakaraimaea_dipterocarpacea.xlsx
+++ b/biology/Botanique/Pakaraimaea_dipterocarpacea/Pakaraimaea_dipterocarpacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pakaraimaea dipterocarpacea est une espèce de plantes à fleurs de la famille des Dipterocarpaceae et du genre monotypique Pakaraimaea. C'est un arbre originaire d'Amérique du Sud.
-La classification phylogénétique APG IV (2016)[2] transfère les Pakaraimaea (auparavant Dipterocarpaceae) dans la famille des Cistaceae.
+La classification phylogénétique APG IV (2016) transfère les Pakaraimaea (auparavant Dipterocarpaceae) dans la famille des Cistaceae.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,10 +554,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre au sud du Venezuela et au Guyana.
-Habitat
-L'espèce est présente sur des sols sableux, entre 500 et 1 100 mètres d'altitude.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre au sud du Venezuela et au Guyana.
 </t>
         </is>
       </c>
@@ -569,12 +586,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitant</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente sur des sols sableux, entre 500 et 1 100 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pakaraimaea_dipterocarpacea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pakaraimaea_dipterocarpacea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce peut atteindre une hauteur de 20 mètres[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce peut atteindre une hauteur de 20 mètres.
 </t>
         </is>
       </c>
